--- a/Supplementary tables/Table S4 Significant metabolites in male and female CRC patients from MSKCC revealed by variable importance analysis (VMIP).xlsx
+++ b/Supplementary tables/Table S4 Significant metabolites in male and female CRC patients from MSKCC revealed by variable importance analysis (VMIP).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxy03\Research\ferr\Draft\ferrdraft022025\Supplementary tables\st new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongyan\Desktop\Submission\Supplementary tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6617A-F450-4DF7-944A-3A183C4DC462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481B1E25-EFCC-4477-A29E-02A07E167FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{075E27F9-E01B-42F1-A48F-F99DE0F39A20}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{075E27F9-E01B-42F1-A48F-F99DE0F39A20}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
   <si>
     <t>lower</t>
   </si>
@@ -422,12 +422,27 @@
   <si>
     <t>Sheet II: Significant metabolites in female CRC patients from MSKCC revealed by VMIP</t>
   </si>
+  <si>
+    <t xml:space="preserve">VIMP: the measure used in random forests to estimate the importance of each variable in the model. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean: the average VIMP across all the trees in the forest for a particular variable. </t>
+  </si>
+  <si>
+    <t>Lower and Upper: the lower and upper bounds of the confidence interval for the VIMP measure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Significant metabolites in male CRC patients from MSKCC revealed by VMIP;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Significant metabolites in female CRC patients from MSKCC revealed by VMIP;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +462,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,12 +492,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,23 +840,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B37A771-F909-444F-BCC0-D3626A28D75C}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -839,2157 +868,2201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB04608-EEAC-4AEA-84E2-96B02B4E5576}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B2">
+      <c r="B6">
         <v>1.6592394E-2</v>
       </c>
-      <c r="C2">
+      <c r="C6">
         <v>0.358064516</v>
       </c>
-      <c r="D2">
+      <c r="D6">
         <v>0.69953663799999999</v>
       </c>
-      <c r="E2">
+      <c r="E6">
         <v>1.9929839000000001E-2</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.38573385999999998</v>
-      </c>
-      <c r="C3">
-        <v>1.0806451610000001</v>
-      </c>
-      <c r="D3">
-        <v>1.775556463</v>
-      </c>
-      <c r="E3">
-        <v>1.1522030000000001E-3</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>0.171207358</v>
-      </c>
-      <c r="C4">
-        <v>0.70322580599999995</v>
-      </c>
-      <c r="D4">
-        <v>1.235244255</v>
-      </c>
-      <c r="E4">
-        <v>4.7891239999999996E-3</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>0.28292046199999998</v>
-      </c>
-      <c r="C5">
-        <v>0.9</v>
-      </c>
-      <c r="D5">
-        <v>1.5170795379999999</v>
-      </c>
-      <c r="E5">
-        <v>2.127749E-3</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>5.1341518000000003E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.425806452</v>
-      </c>
-      <c r="D6">
-        <v>0.80027138499999995</v>
-      </c>
-      <c r="E6">
-        <v>1.2917352999999999E-2</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.23749537400000001</v>
+        <v>0.38573385999999998</v>
       </c>
       <c r="C7">
-        <v>0.67419354799999998</v>
+        <v>1.0806451610000001</v>
       </c>
       <c r="D7">
-        <v>1.1108917220000001</v>
+        <v>1.775556463</v>
       </c>
       <c r="E7">
-        <v>1.239565E-3</v>
+        <v>1.1522030000000001E-3</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>2.6734721999999999E-2</v>
+        <v>0.171207358</v>
       </c>
       <c r="C8">
-        <v>0.42258064499999998</v>
+        <v>0.70322580599999995</v>
       </c>
       <c r="D8">
-        <v>0.81842656800000002</v>
+        <v>1.235244255</v>
       </c>
       <c r="E8">
-        <v>1.8204215999999999E-2</v>
+        <v>4.7891239999999996E-3</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>9.5067139999999994E-3</v>
+        <v>0.28292046199999998</v>
       </c>
       <c r="C9">
-        <v>0.503225806</v>
+        <v>0.9</v>
       </c>
       <c r="D9">
-        <v>0.99694489900000005</v>
+        <v>1.5170795379999999</v>
       </c>
       <c r="E9">
-        <v>2.2874397000000001E-2</v>
+        <v>2.127749E-3</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>0.21118588999999999</v>
+        <v>5.1341518000000003E-2</v>
       </c>
       <c r="C10">
-        <v>0.65806451600000004</v>
+        <v>0.425806452</v>
       </c>
       <c r="D10">
-        <v>1.1049431430000001</v>
+        <v>0.80027138499999995</v>
       </c>
       <c r="E10">
-        <v>1.9495980000000001E-3</v>
+        <v>1.2917352999999999E-2</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.76041602100000005</v>
+        <v>0.23749537400000001</v>
       </c>
       <c r="C11">
-        <v>1.9322580650000001</v>
+        <v>0.67419354799999998</v>
       </c>
       <c r="D11">
-        <v>3.1041001079999999</v>
+        <v>1.1108917220000001</v>
       </c>
       <c r="E11">
-        <v>6.1507100000000002E-4</v>
+        <v>1.239565E-3</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B12">
-        <v>0.36797375999999998</v>
+        <v>2.6734721999999999E-2</v>
       </c>
       <c r="C12">
-        <v>1.103225806</v>
+        <v>0.42258064499999998</v>
       </c>
       <c r="D12">
-        <v>1.8384778530000001</v>
+        <v>0.81842656800000002</v>
       </c>
       <c r="E12">
-        <v>1.6364439999999999E-3</v>
+        <v>1.8204215999999999E-2</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>0.10433648199999999</v>
+        <v>9.5067139999999994E-3</v>
       </c>
       <c r="C13">
-        <v>0.71935483899999997</v>
+        <v>0.503225806</v>
       </c>
       <c r="D13">
-        <v>1.334373195</v>
+        <v>0.99694489900000005</v>
       </c>
       <c r="E13">
-        <v>1.0939341E-2</v>
+        <v>2.2874397000000001E-2</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0.114233484</v>
+        <v>0.21118588999999999</v>
       </c>
       <c r="C14">
-        <v>0.72580645200000005</v>
+        <v>0.65806451600000004</v>
       </c>
       <c r="D14">
-        <v>1.3373794189999999</v>
+        <v>1.1049431430000001</v>
       </c>
       <c r="E14">
-        <v>1.0007715E-2</v>
+        <v>1.9495980000000001E-3</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>0.15369153599999999</v>
+        <v>0.76041602100000005</v>
       </c>
       <c r="C15">
-        <v>0.68387096800000002</v>
+        <v>1.9322580650000001</v>
       </c>
       <c r="D15">
-        <v>1.2140504000000001</v>
+        <v>3.1041001079999999</v>
       </c>
       <c r="E15">
-        <v>5.7335959999999997E-3</v>
+        <v>6.1507100000000002E-4</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>0.61438581699999995</v>
+        <v>0.36797375999999998</v>
       </c>
       <c r="C16">
-        <v>1.725806452</v>
+        <v>1.103225806</v>
       </c>
       <c r="D16">
-        <v>2.837227087</v>
+        <v>1.8384778530000001</v>
       </c>
       <c r="E16">
-        <v>1.1695329999999999E-3</v>
+        <v>1.6364439999999999E-3</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>1.1119174000000001E-2</v>
+        <v>0.10433648199999999</v>
       </c>
       <c r="C17">
-        <v>0.41290322600000001</v>
+        <v>0.71935483899999997</v>
       </c>
       <c r="D17">
-        <v>0.81468727699999999</v>
+        <v>1.334373195</v>
       </c>
       <c r="E17">
-        <v>2.1994006999999999E-2</v>
+        <v>1.0939341E-2</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>0.23221504300000001</v>
+        <v>0.114233484</v>
       </c>
       <c r="C18">
-        <v>0.69032258099999999</v>
+        <v>0.72580645200000005</v>
       </c>
       <c r="D18">
-        <v>1.1484301180000001</v>
+        <v>1.3373794189999999</v>
       </c>
       <c r="E18">
-        <v>1.5711099999999999E-3</v>
+        <v>1.0007715E-2</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="B19">
-        <v>0.27316644200000001</v>
+        <v>0.15369153599999999</v>
       </c>
       <c r="C19">
-        <v>0.93870967699999996</v>
+        <v>0.68387096800000002</v>
       </c>
       <c r="D19">
-        <v>1.6042529130000001</v>
+        <v>1.2140504000000001</v>
       </c>
       <c r="E19">
-        <v>2.851255E-3</v>
+        <v>5.7335959999999997E-3</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>1.2411103999999999E-2</v>
+        <v>0.61438581699999995</v>
       </c>
       <c r="C20">
-        <v>0.49354838699999998</v>
+        <v>1.725806452</v>
       </c>
       <c r="D20">
-        <v>0.97468566999999995</v>
+        <v>2.837227087</v>
       </c>
       <c r="E20">
-        <v>2.2187987999999999E-2</v>
+        <v>1.1695329999999999E-3</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>0.191717097</v>
+        <v>1.1119174000000001E-2</v>
       </c>
       <c r="C21">
-        <v>0.80322580600000004</v>
+        <v>0.41290322600000001</v>
       </c>
       <c r="D21">
-        <v>1.414734516</v>
+        <v>0.81468727699999999</v>
       </c>
       <c r="E21">
-        <v>5.0200970000000003E-3</v>
+        <v>2.1994006999999999E-2</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.23221504300000001</v>
+      </c>
+      <c r="C22">
+        <v>0.69032258099999999</v>
+      </c>
+      <c r="D22">
+        <v>1.1484301180000001</v>
+      </c>
+      <c r="E22">
+        <v>1.5711099999999999E-3</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>0.27316644200000001</v>
+      </c>
+      <c r="C23">
+        <v>0.93870967699999996</v>
+      </c>
+      <c r="D23">
+        <v>1.6042529130000001</v>
+      </c>
+      <c r="E23">
+        <v>2.851255E-3</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1.2411103999999999E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.49354838699999998</v>
+      </c>
+      <c r="D24">
+        <v>0.97468566999999995</v>
+      </c>
+      <c r="E24">
+        <v>2.2187987999999999E-2</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.191717097</v>
+      </c>
+      <c r="C25">
+        <v>0.80322580600000004</v>
+      </c>
+      <c r="D25">
+        <v>1.414734516</v>
+      </c>
+      <c r="E25">
+        <v>5.0200970000000003E-3</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B22">
+      <c r="B26">
         <v>-0.28120553799999998</v>
       </c>
-      <c r="C22">
+      <c r="C26">
         <v>0.112903226</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <v>0.50701198999999997</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>0.287233393</v>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B27">
         <v>-0.15220494300000001</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <v>-1.2903226E-2</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <v>0.126398491</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>0.57203101599999995</v>
       </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>64</v>
       </c>
-      <c r="B24">
+      <c r="B28">
         <v>-0.20904375</v>
       </c>
-      <c r="C24">
+      <c r="C28">
         <v>8.3870968000000004E-2</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <v>0.37678568600000001</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>0.28733020999999997</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>75</v>
       </c>
-      <c r="B25">
+      <c r="B29">
         <v>-4.1725339E-2</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>0.248387097</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>0.53849953299999997</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>4.6666451999999997E-2</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>82</v>
       </c>
-      <c r="B26">
+      <c r="B30">
         <v>-0.23486853799999999</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <v>9.3548386999999997E-2</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>0.42196531199999998</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>0.288323618</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>61</v>
       </c>
-      <c r="B27">
+      <c r="B31">
         <v>-0.24246621400000001</v>
       </c>
-      <c r="C27">
+      <c r="C31">
         <v>7.0967742E-2</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>0.38440169800000001</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <v>0.32860255799999999</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B28">
+      <c r="B32">
         <v>-0.24092350500000001</v>
       </c>
-      <c r="C28">
+      <c r="C32">
         <v>-3.2258065000000002E-2</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <v>0.176407376</v>
       </c>
-      <c r="E28">
+      <c r="E32">
         <v>0.61905327300000002</v>
       </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
+      <c r="B33">
         <v>-1.9125633E-2</v>
       </c>
-      <c r="C29">
+      <c r="C33">
         <v>0.48064516099999999</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>0.98041595599999998</v>
       </c>
-      <c r="E29">
+      <c r="E33">
         <v>2.9717720999999999E-2</v>
       </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>19</v>
       </c>
-      <c r="B30">
+      <c r="B34">
         <v>-6.4062585000000005E-2</v>
       </c>
-      <c r="C30">
+      <c r="C34">
         <v>0.23870967700000001</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <v>0.54148194000000005</v>
       </c>
-      <c r="E30">
+      <c r="E34">
         <v>6.1141491999999999E-2</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>27</v>
       </c>
-      <c r="B31">
+      <c r="B35">
         <v>-9.1871409999999994E-3</v>
       </c>
-      <c r="C31">
+      <c r="C35">
         <v>0.248387097</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>0.50596133499999996</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <v>2.9375228E-2</v>
       </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
+      <c r="B36">
         <v>-0.23210183400000001</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <v>-1.2903226E-2</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>0.206295383</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <v>0.54592572500000003</v>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>109</v>
       </c>
-      <c r="B33">
+      <c r="B37">
         <v>-0.52293218299999999</v>
       </c>
-      <c r="C33">
+      <c r="C37">
         <v>-0.12903225800000001</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <v>0.26486766699999997</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <v>0.73957562799999998</v>
       </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="B38">
         <v>-0.171897044</v>
       </c>
-      <c r="C34">
+      <c r="C38">
         <v>0.19354838699999999</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>0.55899381800000003</v>
       </c>
-      <c r="E34">
+      <c r="E38">
         <v>0.14962514800000001</v>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>28</v>
       </c>
-      <c r="B35">
+      <c r="B39">
         <v>-0.24489855499999999</v>
       </c>
-      <c r="C35">
+      <c r="C39">
         <v>3.2258059999999999E-3</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <v>0.25135016799999998</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <v>0.48983563899999999</v>
       </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B36">
+      <c r="B40">
         <v>-0.24590647700000001</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C40" s="1">
         <v>-1.1099999999999999E-17</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <v>0.24590647700000001</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <v>0.5</v>
       </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>95</v>
       </c>
-      <c r="B37">
+      <c r="B41">
         <v>-0.318852523</v>
       </c>
-      <c r="C37">
+      <c r="C41">
         <v>0.19354838699999999</v>
       </c>
-      <c r="D37">
+      <c r="D41">
         <v>0.70594929699999998</v>
       </c>
-      <c r="E37">
+      <c r="E41">
         <v>0.22954864699999999</v>
       </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B38">
+      <c r="B42">
         <v>-5.3737869999999997E-3</v>
       </c>
-      <c r="C38">
+      <c r="C42">
         <v>0.390322581</v>
       </c>
-      <c r="D38">
+      <c r="D42">
         <v>0.78601894900000002</v>
       </c>
-      <c r="E38">
+      <c r="E42">
         <v>2.6596761999999999E-2</v>
       </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B43">
         <v>-0.24094874899999999</v>
       </c>
-      <c r="C39">
+      <c r="C43">
         <v>0.148387097</v>
       </c>
-      <c r="D39">
+      <c r="D43">
         <v>0.53772294300000001</v>
       </c>
-      <c r="E39">
+      <c r="E43">
         <v>0.227532177</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>68</v>
       </c>
-      <c r="B40">
+      <c r="B44">
         <v>-0.16776427799999999</v>
       </c>
-      <c r="C40">
+      <c r="C44">
         <v>0.212903226</v>
       </c>
-      <c r="D40">
+      <c r="D44">
         <v>0.59357073000000005</v>
       </c>
-      <c r="E40">
+      <c r="E44">
         <v>0.13649854</v>
       </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>86</v>
       </c>
-      <c r="B41">
+      <c r="B45">
         <v>-5.2579516E-2</v>
       </c>
-      <c r="C41">
+      <c r="C45">
         <v>0.24516129</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <v>0.54290209700000003</v>
       </c>
-      <c r="E41">
+      <c r="E45">
         <v>5.3280603000000003E-2</v>
       </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>57</v>
       </c>
-      <c r="B42">
+      <c r="B46">
         <v>-0.104143577</v>
       </c>
-      <c r="C42">
+      <c r="C46">
         <v>0.17096774200000001</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>0.446079061</v>
       </c>
-      <c r="E42">
+      <c r="E46">
         <v>0.11160851199999999</v>
       </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B43">
+      <c r="B47">
         <v>-0.370272188</v>
       </c>
-      <c r="C43">
+      <c r="C47">
         <v>-9.0322580999999999E-2</v>
       </c>
-      <c r="D43">
+      <c r="D47">
         <v>0.189627027</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <v>0.73642425</v>
       </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>66</v>
       </c>
-      <c r="B44">
+      <c r="B48">
         <v>-0.25678995399999999</v>
       </c>
-      <c r="C44">
+      <c r="C48">
         <v>7.7419354999999995E-2</v>
       </c>
-      <c r="D44">
+      <c r="D48">
         <v>0.41162866399999998</v>
       </c>
-      <c r="E44">
+      <c r="E48">
         <v>0.32490566900000001</v>
       </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>105</v>
       </c>
-      <c r="B45">
+      <c r="B49">
         <v>-0.39954626799999998</v>
       </c>
-      <c r="C45">
+      <c r="C49">
         <v>-3.8709676999999998E-2</v>
       </c>
-      <c r="D45">
+      <c r="D49">
         <v>0.32212691399999999</v>
       </c>
-      <c r="E45">
+      <c r="E49">
         <v>0.58326770100000003</v>
       </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B46">
+      <c r="B50">
         <v>-0.153261798</v>
       </c>
-      <c r="C46">
+      <c r="C50">
         <v>9.6774189999999996E-3</v>
       </c>
-      <c r="D46">
+      <c r="D50">
         <v>0.17261663699999999</v>
       </c>
-      <c r="E46">
+      <c r="E50">
         <v>0.45366468300000001</v>
       </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>92</v>
       </c>
-      <c r="B47">
+      <c r="B51">
         <v>-0.42413355200000002</v>
       </c>
-      <c r="C47">
+      <c r="C51">
         <v>3.5483871E-2</v>
       </c>
-      <c r="D47">
+      <c r="D51">
         <v>0.49510129400000003</v>
       </c>
-      <c r="E47">
+      <c r="E51">
         <v>0.439863534</v>
       </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>76</v>
       </c>
-      <c r="B48">
+      <c r="B52">
         <v>-0.29221025</v>
       </c>
-      <c r="C48">
+      <c r="C52">
         <v>9.0322580999999999E-2</v>
       </c>
-      <c r="D48">
+      <c r="D52">
         <v>0.472855411</v>
       </c>
-      <c r="E48">
+      <c r="E52">
         <v>0.32176060200000001</v>
       </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B49">
+      <c r="B53">
         <v>-0.315869868</v>
       </c>
-      <c r="C49">
+      <c r="C53">
         <v>-0.112903226</v>
       </c>
-      <c r="D49">
+      <c r="D53">
         <v>9.0063417000000007E-2</v>
       </c>
-      <c r="E49">
+      <c r="E53">
         <v>0.862200517</v>
       </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B54">
         <v>-8.0353076999999995E-2</v>
       </c>
-      <c r="C50">
+      <c r="C54">
         <v>0.33225806499999999</v>
       </c>
-      <c r="D50">
+      <c r="D54">
         <v>0.74486920599999995</v>
       </c>
-      <c r="E50">
+      <c r="E54">
         <v>5.7251226000000002E-2</v>
       </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>97</v>
       </c>
-      <c r="B51">
+      <c r="B55">
         <v>-0.26759029499999998</v>
       </c>
-      <c r="C51">
+      <c r="C55">
         <v>4.516129E-2</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <v>0.35791287500000002</v>
       </c>
-      <c r="E51">
+      <c r="E55">
         <v>0.38858130600000002</v>
       </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>98</v>
       </c>
-      <c r="B52">
+      <c r="B56">
         <v>-0.22117624</v>
       </c>
-      <c r="C52">
+      <c r="C56">
         <v>6.4516129000000005E-2</v>
       </c>
-      <c r="D52">
+      <c r="D56">
         <v>0.35020849799999998</v>
       </c>
-      <c r="E52">
+      <c r="E56">
         <v>0.32902520400000002</v>
       </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <v>-0.15643700799999999</v>
       </c>
-      <c r="C53">
+      <c r="C57">
         <v>0.29354838700000002</v>
       </c>
-      <c r="D53">
+      <c r="D57">
         <v>0.74353378299999995</v>
       </c>
-      <c r="E53">
+      <c r="E57">
         <v>0.100521739</v>
       </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>100</v>
       </c>
-      <c r="B54">
+      <c r="B58">
         <v>-0.25150655500000002</v>
       </c>
-      <c r="C54">
+      <c r="C58">
         <v>0.15483870999999999</v>
       </c>
-      <c r="D54">
+      <c r="D58">
         <v>0.56118397499999995</v>
       </c>
-      <c r="E54">
+      <c r="E58">
         <v>0.22757754999999999</v>
       </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>99</v>
       </c>
-      <c r="B55">
+      <c r="B59">
         <v>-0.393595735</v>
       </c>
-      <c r="C55">
+      <c r="C59">
         <v>-8.0645161000000007E-2</v>
       </c>
-      <c r="D55">
+      <c r="D59">
         <v>0.23230541199999999</v>
       </c>
-      <c r="E55">
+      <c r="E59">
         <v>0.69324478899999997</v>
       </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>24</v>
       </c>
-      <c r="B56">
+      <c r="B60">
         <v>-6.0696714999999998E-2</v>
       </c>
-      <c r="C56">
+      <c r="C60">
         <v>0.35483871</v>
       </c>
-      <c r="D56">
+      <c r="D60">
         <v>0.77037413399999999</v>
       </c>
-      <c r="E56">
+      <c r="E60">
         <v>4.7097282999999997E-2</v>
       </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>46</v>
       </c>
-      <c r="B57">
+      <c r="B61">
         <v>-0.17297269400000001</v>
       </c>
-      <c r="C57">
+      <c r="C61">
         <v>0.22580645199999999</v>
       </c>
-      <c r="D57">
+      <c r="D61">
         <v>0.62458559700000005</v>
       </c>
-      <c r="E57">
+      <c r="E61">
         <v>0.13353860200000001</v>
       </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>54</v>
       </c>
-      <c r="B58">
+      <c r="B62">
         <v>-0.112687183</v>
       </c>
-      <c r="C58">
+      <c r="C62">
         <v>0.16451612900000001</v>
       </c>
-      <c r="D58">
+      <c r="D62">
         <v>0.44171944099999999</v>
       </c>
-      <c r="E58">
+      <c r="E62">
         <v>0.12237213800000001</v>
       </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>72</v>
       </c>
-      <c r="B59">
+      <c r="B63">
         <v>-0.119117838</v>
       </c>
-      <c r="C59">
+      <c r="C63">
         <v>0.31612903199999998</v>
       </c>
-      <c r="D59">
+      <c r="D63">
         <v>0.75137590300000001</v>
       </c>
-      <c r="E59">
+      <c r="E63">
         <v>7.7286446999999994E-2</v>
       </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>85</v>
       </c>
-      <c r="B60">
+      <c r="B64">
         <v>-0.240370423</v>
       </c>
-      <c r="C60">
+      <c r="C64">
         <v>0.15161290299999999</v>
       </c>
-      <c r="D60">
+      <c r="D64">
         <v>0.54359622900000004</v>
       </c>
-      <c r="E60">
+      <c r="E64">
         <v>0.224200698</v>
       </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="B61">
+      <c r="B65">
         <v>-0.27173989799999998</v>
       </c>
-      <c r="C61">
+      <c r="C65">
         <v>0.31290322599999998</v>
       </c>
-      <c r="D61">
+      <c r="D65">
         <v>0.89754635000000005</v>
       </c>
-      <c r="E61">
+      <c r="E65">
         <v>0.14709361900000001</v>
       </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B66">
         <v>-0.26391735599999999</v>
       </c>
-      <c r="C62">
+      <c r="C66">
         <v>0.15483870999999999</v>
       </c>
-      <c r="D62">
+      <c r="D66">
         <v>0.57359477599999997</v>
       </c>
-      <c r="E62">
+      <c r="E66">
         <v>0.23431381800000001</v>
       </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>58</v>
       </c>
-      <c r="B63">
+      <c r="B67">
         <v>-0.30813617500000001</v>
       </c>
-      <c r="C63">
+      <c r="C67">
         <v>8.3870968000000004E-2</v>
       </c>
-      <c r="D63">
+      <c r="D67">
         <v>0.47587811000000002</v>
       </c>
-      <c r="E63">
+      <c r="E67">
         <v>0.33748401900000002</v>
       </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>35</v>
       </c>
-      <c r="B64">
+      <c r="B68">
         <v>-6.2452490999999999E-2</v>
       </c>
-      <c r="C64">
+      <c r="C68">
         <v>0.32903225800000002</v>
       </c>
-      <c r="D64">
+      <c r="D68">
         <v>0.72051700699999999</v>
       </c>
-      <c r="E64">
+      <c r="E68">
         <v>4.9748580000000001E-2</v>
       </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>104</v>
       </c>
-      <c r="B65">
+      <c r="B69">
         <v>-0.13933432800000001</v>
       </c>
-      <c r="C65">
+      <c r="C69">
         <v>9.3548386999999997E-2</v>
       </c>
-      <c r="D65">
+      <c r="D69">
         <v>0.32643110199999997</v>
       </c>
-      <c r="E65">
+      <c r="E69">
         <v>0.21554948099999999</v>
       </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>38</v>
       </c>
-      <c r="B66">
+      <c r="B70">
         <v>-0.36118874099999998</v>
       </c>
-      <c r="C66">
+      <c r="C70">
         <v>-1.9354838999999999E-2</v>
       </c>
-      <c r="D66">
+      <c r="D70">
         <v>0.32247906300000001</v>
       </c>
-      <c r="E66">
+      <c r="E70">
         <v>0.54418164700000005</v>
       </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="B67">
+      <c r="B71">
         <v>-0.212760478</v>
       </c>
-      <c r="C67">
+      <c r="C71">
         <v>0.13548387100000001</v>
       </c>
-      <c r="D67">
+      <c r="D71">
         <v>0.48372821999999999</v>
       </c>
-      <c r="E67">
+      <c r="E71">
         <v>0.222874661</v>
       </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>34</v>
       </c>
-      <c r="B68">
+      <c r="B72">
         <v>-0.48753682500000001</v>
       </c>
-      <c r="C68">
+      <c r="C72">
         <v>-0.13548387100000001</v>
       </c>
-      <c r="D68">
+      <c r="D72">
         <v>0.216569083</v>
       </c>
-      <c r="E68">
+      <c r="E72">
         <v>0.77465689199999999</v>
       </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
+      <c r="B73">
         <v>-7.8631137000000004E-2</v>
       </c>
-      <c r="C69">
+      <c r="C73">
         <v>0.209677419</v>
       </c>
-      <c r="D69">
+      <c r="D73">
         <v>0.49798597500000003</v>
       </c>
-      <c r="E69">
+      <c r="E73">
         <v>7.7018211000000003E-2</v>
       </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>17</v>
       </c>
-      <c r="B70">
+      <c r="B74">
         <v>-0.19424797499999999</v>
       </c>
-      <c r="C70">
+      <c r="C74">
         <v>0.19032258099999999</v>
       </c>
-      <c r="D70">
+      <c r="D74">
         <v>0.57489313600000003</v>
       </c>
-      <c r="E70">
+      <c r="E74">
         <v>0.16602845399999999</v>
       </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B71">
+      <c r="B75">
         <v>-5.0954869E-2</v>
       </c>
-      <c r="C71">
+      <c r="C75">
         <v>0.358064516</v>
       </c>
-      <c r="D71">
+      <c r="D75">
         <v>0.76708390199999998</v>
       </c>
-      <c r="E71">
+      <c r="E75">
         <v>4.3099753999999997E-2</v>
       </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>83</v>
       </c>
-      <c r="B72">
+      <c r="B76">
         <v>-0.21911296699999999</v>
       </c>
-      <c r="C72">
+      <c r="C76">
         <v>0.248387097</v>
       </c>
-      <c r="D72">
+      <c r="D76">
         <v>0.71588716100000005</v>
       </c>
-      <c r="E72">
+      <c r="E76">
         <v>0.14885727800000001</v>
       </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>55</v>
       </c>
-      <c r="B73">
+      <c r="B77">
         <v>-0.174191916</v>
       </c>
-      <c r="C73">
+      <c r="C77">
         <v>0.22580645199999999</v>
       </c>
-      <c r="D73">
+      <c r="D77">
         <v>0.62580481899999996</v>
       </c>
-      <c r="E73">
+      <c r="E77">
         <v>0.13426896899999999</v>
       </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>110</v>
       </c>
-      <c r="B74">
+      <c r="B78">
         <v>-0.395892201</v>
       </c>
-      <c r="C74">
+      <c r="C78">
         <v>-6.4516129000000005E-2</v>
       </c>
-      <c r="D74">
+      <c r="D78">
         <v>0.26685994299999999</v>
       </c>
-      <c r="E74">
+      <c r="E78">
         <v>0.648616682</v>
       </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>88</v>
       </c>
-      <c r="B75">
+      <c r="B79">
         <v>-0.31511357499999998</v>
       </c>
-      <c r="C75">
+      <c r="C79">
         <v>-6.1290323000000001E-2</v>
       </c>
-      <c r="D75">
+      <c r="D79">
         <v>0.19253292999999999</v>
       </c>
-      <c r="E75">
+      <c r="E79">
         <v>0.68198957000000004</v>
       </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>65</v>
       </c>
-      <c r="B76">
+      <c r="B80">
         <v>-0.36976547700000001</v>
       </c>
-      <c r="C76">
+      <c r="C80">
         <v>1.6129032000000001E-2</v>
       </c>
-      <c r="D76">
+      <c r="D80">
         <v>0.40202354099999998</v>
       </c>
-      <c r="E76">
+      <c r="E80">
         <v>0.46735532600000002</v>
       </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>67</v>
       </c>
-      <c r="B77">
+      <c r="B81">
         <v>-0.49466085700000001</v>
       </c>
-      <c r="C77">
+      <c r="C81">
         <v>-5.4838709999999999E-2</v>
       </c>
-      <c r="D77">
+      <c r="D81">
         <v>0.38498343800000001</v>
       </c>
-      <c r="E77">
+      <c r="E81">
         <v>0.59653011499999997</v>
       </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B78">
+      <c r="B82">
         <v>-9.6363116999999998E-2</v>
       </c>
-      <c r="C78">
+      <c r="C82">
         <v>0.30967741900000001</v>
       </c>
-      <c r="D78">
+      <c r="D82">
         <v>0.71571795599999999</v>
       </c>
-      <c r="E78">
+      <c r="E82">
         <v>6.7481009999999994E-2</v>
       </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>93</v>
       </c>
-      <c r="B79">
+      <c r="B83">
         <v>-0.78782783499999998</v>
       </c>
-      <c r="C79">
+      <c r="C83">
         <v>-0.25483871000000002</v>
       </c>
-      <c r="D79">
+      <c r="D83">
         <v>0.27815041600000001</v>
       </c>
-      <c r="E79">
+      <c r="E83">
         <v>0.82565154600000001</v>
       </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>70</v>
       </c>
-      <c r="B80">
+      <c r="B84">
         <v>-0.37977704299999998</v>
       </c>
-      <c r="C80">
+      <c r="C84">
         <v>-1.2903226E-2</v>
       </c>
-      <c r="D80">
+      <c r="D84">
         <v>0.353970591</v>
       </c>
-      <c r="E80">
+      <c r="E84">
         <v>0.52747868200000003</v>
       </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>94</v>
       </c>
-      <c r="B81">
+      <c r="B85">
         <v>-0.23082150500000001</v>
       </c>
-      <c r="C81">
+      <c r="C85">
         <v>0.1</v>
       </c>
-      <c r="D81">
+      <c r="D85">
         <v>0.43082150499999999</v>
       </c>
-      <c r="E81">
+      <c r="E85">
         <v>0.27677343399999998</v>
       </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>87</v>
       </c>
-      <c r="B82">
+      <c r="B86">
         <v>-0.37251944199999998</v>
       </c>
-      <c r="C82">
+      <c r="C86">
         <v>0.119354839</v>
       </c>
-      <c r="D82">
+      <c r="D86">
         <v>0.61122911899999999</v>
       </c>
-      <c r="E82">
+      <c r="E86">
         <v>0.31718274600000002</v>
       </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>84</v>
       </c>
-      <c r="B83">
+      <c r="B87">
         <v>-8.4725558000000006E-2</v>
       </c>
-      <c r="C83">
+      <c r="C87">
         <v>0.319354839</v>
       </c>
-      <c r="D83">
+      <c r="D87">
         <v>0.72343523499999995</v>
       </c>
-      <c r="E83">
+      <c r="E87">
         <v>6.0689833999999998E-2</v>
       </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>48</v>
       </c>
-      <c r="B84">
+      <c r="B88">
         <v>-1.5500609E-2</v>
       </c>
-      <c r="C84">
+      <c r="C88">
         <v>0.38387096799999998</v>
       </c>
-      <c r="D84">
+      <c r="D88">
         <v>0.78324254400000004</v>
       </c>
-      <c r="E84">
+      <c r="E88">
         <v>2.9789732999999999E-2</v>
       </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>63</v>
       </c>
-      <c r="B85">
+      <c r="B89">
         <v>-0.23491100400000001</v>
       </c>
-      <c r="C85">
+      <c r="C89">
         <v>0.177419355</v>
       </c>
-      <c r="D85">
+      <c r="D89">
         <v>0.58974971300000001</v>
       </c>
-      <c r="E85">
+      <c r="E89">
         <v>0.199518575</v>
       </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>56</v>
       </c>
-      <c r="B86">
+      <c r="B90">
         <v>-1.3172002E-2</v>
       </c>
-      <c r="C86">
+      <c r="C90">
         <v>0.34193548400000001</v>
       </c>
-      <c r="D86">
+      <c r="D90">
         <v>0.69704297000000004</v>
       </c>
-      <c r="E86">
+      <c r="E90">
         <v>2.9562478E-2</v>
       </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>103</v>
       </c>
-      <c r="B87">
+      <c r="B91">
         <v>-0.448230558</v>
       </c>
-      <c r="C87">
+      <c r="C91">
         <v>-0.15161290299999999</v>
       </c>
-      <c r="D87">
+      <c r="D91">
         <v>0.14500475199999999</v>
       </c>
-      <c r="E87">
+      <c r="E91">
         <v>0.84178337299999995</v>
       </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>101</v>
       </c>
-      <c r="B88">
+      <c r="B92">
         <v>-0.45073477200000001</v>
       </c>
-      <c r="C88">
+      <c r="C92">
         <v>-0.109677419</v>
       </c>
-      <c r="D88">
+      <c r="D92">
         <v>0.23137993400000001</v>
       </c>
-      <c r="E88">
+      <c r="E92">
         <v>0.73574637200000004</v>
       </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B89">
+      <c r="B93">
         <v>-0.448121614</v>
       </c>
-      <c r="C89">
+      <c r="C93">
         <v>-0.122580645</v>
       </c>
-      <c r="D89">
+      <c r="D93">
         <v>0.202960323</v>
       </c>
-      <c r="E89">
+      <c r="E93">
         <v>0.76974689600000001</v>
       </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B94">
         <v>-0.28824998099999999</v>
       </c>
-      <c r="C90">
+      <c r="C94">
         <v>-3.8709676999999998E-2</v>
       </c>
-      <c r="D90">
+      <c r="D94">
         <v>0.21083062599999999</v>
       </c>
-      <c r="E90">
+      <c r="E94">
         <v>0.61945028400000002</v>
       </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>71</v>
       </c>
-      <c r="B91">
+      <c r="B95">
         <v>-0.23800612500000001</v>
       </c>
-      <c r="C91">
+      <c r="C95">
         <v>0.148387097</v>
       </c>
-      <c r="D91">
+      <c r="D95">
         <v>0.53478031800000003</v>
       </c>
-      <c r="E91">
+      <c r="E95">
         <v>0.22581884799999999</v>
       </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>73</v>
       </c>
-      <c r="B92">
+      <c r="B96">
         <v>-0.17780887100000001</v>
       </c>
-      <c r="C92">
+      <c r="C96">
         <v>2.9032257999999998E-2</v>
       </c>
-      <c r="D92">
+      <c r="D96">
         <v>0.23587338699999999</v>
       </c>
-      <c r="E92">
+      <c r="E96">
         <v>0.391619361</v>
       </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>45</v>
       </c>
-      <c r="B93">
+      <c r="B97">
         <v>-0.18605338900000001</v>
       </c>
-      <c r="C93">
+      <c r="C97">
         <v>0.14516129</v>
       </c>
-      <c r="D93">
+      <c r="D97">
         <v>0.47637596999999998</v>
       </c>
-      <c r="E93">
+      <c r="E97">
         <v>0.195172347</v>
       </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>60</v>
       </c>
-      <c r="B94">
+      <c r="B98">
         <v>-0.30099055600000002</v>
       </c>
-      <c r="C94">
+      <c r="C98">
         <v>6.4516130000000001E-3</v>
       </c>
-      <c r="D94">
+      <c r="D98">
         <v>0.31389378200000001</v>
       </c>
-      <c r="E94">
+      <c r="E98">
         <v>0.48359634600000001</v>
       </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>96</v>
       </c>
-      <c r="B95">
+      <c r="B99">
         <v>-0.35836217199999998</v>
       </c>
-      <c r="C95">
+      <c r="C99">
         <v>-2.9032257999999998E-2</v>
       </c>
-      <c r="D95">
+      <c r="D99">
         <v>0.30029765600000002</v>
       </c>
-      <c r="E95">
+      <c r="E99">
         <v>0.568588486</v>
       </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>102</v>
       </c>
-      <c r="B96">
+      <c r="B100">
         <v>-0.15385514</v>
       </c>
-      <c r="C96">
+      <c r="C100">
         <v>5.8064515999999997E-2</v>
       </c>
-      <c r="D96">
+      <c r="D100">
         <v>0.26998417200000002</v>
       </c>
-      <c r="E96">
+      <c r="E100">
         <v>0.29562809499999998</v>
       </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>15</v>
       </c>
-      <c r="B97">
+      <c r="B101">
         <v>-0.139014578</v>
       </c>
-      <c r="C97">
+      <c r="C101">
         <v>0.29677419399999999</v>
       </c>
-      <c r="D97">
+      <c r="D101">
         <v>0.73256296499999995</v>
       </c>
-      <c r="E97">
+      <c r="E101">
         <v>9.0979967999999994E-2</v>
       </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>51</v>
       </c>
-      <c r="B98">
+      <c r="B102">
         <v>-0.35428949900000001</v>
       </c>
-      <c r="C98">
+      <c r="C102">
         <v>3.8709676999999998E-2</v>
       </c>
-      <c r="D98">
+      <c r="D102">
         <v>0.431708853</v>
       </c>
-      <c r="E98">
+      <c r="E102">
         <v>0.42345882600000001</v>
       </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>107</v>
       </c>
-      <c r="B99">
+      <c r="B103">
         <v>-0.203036781</v>
       </c>
-      <c r="C99">
+      <c r="C103">
         <v>0.138709677</v>
       </c>
-      <c r="D99">
+      <c r="D103">
         <v>0.48045613599999998</v>
       </c>
-      <c r="E99">
+      <c r="E103">
         <v>0.21315568600000001</v>
       </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>43</v>
       </c>
-      <c r="B100">
+      <c r="B104">
         <v>-0.117577734</v>
       </c>
-      <c r="C100">
+      <c r="C104">
         <v>0.29354838700000002</v>
       </c>
-      <c r="D100">
+      <c r="D104">
         <v>0.70467450799999998</v>
       </c>
-      <c r="E100">
+      <c r="E104">
         <v>8.0841294999999994E-2</v>
       </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>81</v>
       </c>
-      <c r="B101">
+      <c r="B105">
         <v>-9.3256962999999998E-2</v>
       </c>
-      <c r="C101">
+      <c r="C105">
         <v>0.13548387100000001</v>
       </c>
-      <c r="D101">
+      <c r="D105">
         <v>0.36422470499999998</v>
       </c>
-      <c r="E101">
+      <c r="E105">
         <v>0.12284282000000001</v>
       </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>29</v>
       </c>
-      <c r="B102">
+      <c r="B106">
         <v>-0.176221602</v>
       </c>
-      <c r="C102">
+      <c r="C106">
         <v>0.27096774200000001</v>
       </c>
-      <c r="D102">
+      <c r="D106">
         <v>0.71815708599999994</v>
       </c>
-      <c r="E102">
+      <c r="E106">
         <v>0.117493337</v>
       </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>117</v>
       </c>
-      <c r="B103">
+      <c r="B107">
         <v>-0.44648600300000002</v>
       </c>
-      <c r="C103">
+      <c r="C107">
         <v>-2.5806452000000001E-2</v>
       </c>
-      <c r="D103">
+      <c r="D107">
         <v>0.39487309999999998</v>
       </c>
-      <c r="E103">
+      <c r="E107">
         <v>0.547850854</v>
       </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>116</v>
       </c>
-      <c r="B104">
+      <c r="B108">
         <v>-0.51345160000000001</v>
       </c>
-      <c r="C104">
+      <c r="C108">
         <v>-6.1290323000000001E-2</v>
       </c>
-      <c r="D104">
+      <c r="D108">
         <v>0.39087095500000002</v>
       </c>
-      <c r="E104">
+      <c r="E108">
         <v>0.60475428499999995</v>
       </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>115</v>
       </c>
-      <c r="B105">
+      <c r="B109">
         <v>-0.40253122200000002</v>
       </c>
-      <c r="C105">
+      <c r="C109">
         <v>-4.516129E-2</v>
       </c>
-      <c r="D105">
+      <c r="D109">
         <v>0.31220864100000001</v>
       </c>
-      <c r="E105">
+      <c r="E109">
         <v>0.59781020600000001</v>
       </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="B106">
+      <c r="B110">
         <v>-0.34653249400000002</v>
       </c>
-      <c r="C106">
+      <c r="C110">
         <v>5.1612903000000002E-2</v>
       </c>
-      <c r="D106">
+      <c r="D110">
         <v>0.4497583</v>
       </c>
-      <c r="E106">
+      <c r="E110">
         <v>0.39971818799999997</v>
       </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="B107">
+      <c r="B111">
         <v>-0.60606619299999998</v>
       </c>
-      <c r="C107">
+      <c r="C111">
         <v>-0.103225806</v>
       </c>
-      <c r="D107">
+      <c r="D111">
         <v>0.39961458</v>
       </c>
-      <c r="E107">
+      <c r="E111">
         <v>0.65628752499999998</v>
       </c>
-      <c r="F107" t="b">
+      <c r="F111" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F107">
-    <sortCondition descending="1" ref="F4:F107"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F111">
+    <sortCondition descending="1" ref="F8:F111"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2997,2297 +3070,2340 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A65196-BF69-4A1E-94CE-DB2E12C89A4F}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.90625" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>109</v>
       </c>
-      <c r="B2">
+      <c r="B6">
         <v>0.359775959437383</v>
       </c>
-      <c r="C2">
+      <c r="C6">
         <v>1.2620689655172399</v>
       </c>
-      <c r="D2">
+      <c r="D6">
         <v>2.1643619715971001</v>
       </c>
-      <c r="E2">
+      <c r="E6">
         <v>3.0582420256967998E-3</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3">
-        <v>0.211581918763696</v>
-      </c>
-      <c r="C3">
-        <v>0.87241379310344802</v>
-      </c>
-      <c r="D3">
-        <v>1.5332456674432</v>
-      </c>
-      <c r="E3">
-        <v>4.8338205221756204E-3</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>6.4361098004788106E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.582758620689655</v>
-      </c>
-      <c r="D4">
-        <v>1.1011561433745201</v>
-      </c>
-      <c r="E4">
-        <v>1.37867615715511E-2</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>6.7930381143087599E-3</v>
-      </c>
-      <c r="C5">
-        <v>0.40344827586206899</v>
-      </c>
-      <c r="D5">
-        <v>0.80010351360982901</v>
-      </c>
-      <c r="E5">
-        <v>2.3101724487746701E-2</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6">
-        <v>0.248410301673715</v>
-      </c>
-      <c r="C6">
-        <v>0.986206896551724</v>
-      </c>
-      <c r="D6">
-        <v>1.72400349142973</v>
-      </c>
-      <c r="E6">
-        <v>4.3981849997524096E-3</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7">
+        <v>0.211581918763696</v>
+      </c>
+      <c r="C7">
+        <v>0.87241379310344802</v>
+      </c>
+      <c r="D7">
+        <v>1.5332456674432</v>
+      </c>
+      <c r="E7">
+        <v>4.8338205221756204E-3</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>6.4361098004788106E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.582758620689655</v>
+      </c>
+      <c r="D8">
+        <v>1.1011561433745201</v>
+      </c>
+      <c r="E8">
+        <v>1.37867615715511E-2</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>6.7930381143087599E-3</v>
+      </c>
+      <c r="C9">
+        <v>0.40344827586206899</v>
+      </c>
+      <c r="D9">
+        <v>0.80010351360982901</v>
+      </c>
+      <c r="E9">
+        <v>2.3101724487746701E-2</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>0.248410301673715</v>
+      </c>
+      <c r="C10">
+        <v>0.986206896551724</v>
+      </c>
+      <c r="D10">
+        <v>1.72400349142973</v>
+      </c>
+      <c r="E10">
+        <v>4.3981849997524096E-3</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B11">
         <v>-0.35702311469272202</v>
       </c>
-      <c r="C7">
+      <c r="C11">
         <v>-6.5517241379310406E-2</v>
       </c>
-      <c r="D7">
+      <c r="D11">
         <v>0.22598863193410099</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>0.67021633947389803</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B8">
+      <c r="B12">
         <v>-0.31615125563132201</v>
       </c>
-      <c r="C8">
+      <c r="C12">
         <v>-3.10344827586207E-2</v>
       </c>
-      <c r="D8">
+      <c r="D12">
         <v>0.25408229011408101</v>
       </c>
-      <c r="E8">
+      <c r="E12">
         <v>0.58446864165024304</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B9">
+      <c r="B13">
         <v>-0.23721947465993201</v>
       </c>
-      <c r="C9">
+      <c r="C13">
         <v>6.8965517241379296E-2</v>
       </c>
-      <c r="D9">
+      <c r="D13">
         <v>0.37515050914268999</v>
       </c>
-      <c r="E9">
+      <c r="E13">
         <v>0.32943822968205</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>-0.34929650291694397</v>
       </c>
-      <c r="C10">
+      <c r="C14">
         <v>-3.4482758620689599E-2</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>0.28033098567556503</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>0.58499252085944098</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>-0.28526044069274598</v>
       </c>
-      <c r="C11">
+      <c r="C15">
         <v>0.12758620689655201</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>0.54043285448584899</v>
       </c>
-      <c r="E11">
+      <c r="E15">
         <v>0.27235445342951897</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="B12">
+      <c r="B16">
         <v>-0.47577547115428398</v>
       </c>
-      <c r="C12">
+      <c r="C16">
         <v>-0.1</v>
       </c>
-      <c r="D12">
+      <c r="D16">
         <v>0.27577547115428402</v>
       </c>
-      <c r="E12">
+      <c r="E16">
         <v>0.69901807442205699</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B17">
         <v>-0.24346044893184501</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>3.7931034482758599E-2</v>
       </c>
-      <c r="D13">
+      <c r="D17">
         <v>0.31932251789736199</v>
       </c>
-      <c r="E13">
+      <c r="E17">
         <v>0.39581313614213298</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B14">
+      <c r="B18">
         <v>-0.26101749011514902</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <v>-6.2068965517241399E-2</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <v>0.13687955908066601</v>
       </c>
-      <c r="E14">
+      <c r="E18">
         <v>0.72955889483073</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <v>-0.16016419280498601</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <v>0.23103448275862101</v>
       </c>
-      <c r="D15">
+      <c r="D19">
         <v>0.62223315832222803</v>
       </c>
-      <c r="E15">
+      <c r="E19">
         <v>0.123530521666962</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <v>-0.27057345725210202</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>-2.41379310344828E-2</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <v>0.22229759518313699</v>
       </c>
-      <c r="E16">
+      <c r="E20">
         <v>0.57611913024069294</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <v>-0.33635013205341302</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>-7.2413793103448296E-2</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>0.19152254584651601</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>0.70462080384796</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <v>-0.30099300713884303</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <v>-1.03448275862069E-2</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>0.28030335196643003</v>
       </c>
-      <c r="E18">
+      <c r="E22">
         <v>0.52780748292803104</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>106</v>
       </c>
-      <c r="B19">
+      <c r="B23">
         <v>-0.197028585541172</v>
       </c>
-      <c r="C19">
+      <c r="C23">
         <v>8.9655172413793005E-2</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.37633893036875798</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>0.26995689222611802</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <v>-0.206874585759694</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>7.5862068965517296E-2</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>0.35859872369072798</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>0.29948410824600102</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B21">
+      <c r="B25">
         <v>-0.26580430997373899</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C25" s="1">
         <v>-2.2204460492503101E-17</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <v>0.26580430997373899</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>0.5</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B22">
+      <c r="B26">
         <v>-0.29377461182041698</v>
       </c>
-      <c r="C22">
+      <c r="C26">
         <v>5.8620689655172503E-2</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <v>0.41101599113076198</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>0.37219760789542899</v>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>107</v>
       </c>
-      <c r="B23">
+      <c r="B27">
         <v>-0.103729368749123</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <v>0.26206896551724101</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <v>0.627867299783605</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>8.0133023121894506E-2</v>
       </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>100</v>
       </c>
-      <c r="B24">
+      <c r="B28">
         <v>-0.21868612331471601</v>
       </c>
-      <c r="C24">
+      <c r="C28">
         <v>5.5172413793103503E-2</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <v>0.32903095090092299</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>0.34647288749650501</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B25">
+      <c r="B29">
         <v>-0.26778887081210101</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>7.5862068965517296E-2</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>0.41951300874313602</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>0.33262782308699201</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B26">
+      <c r="B30">
         <v>-0.106331834022516</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <v>0.17931034482758601</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>0.46495252367768802</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>0.109281747857222</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B27">
+      <c r="B31">
         <v>-0.117262115149996</v>
       </c>
-      <c r="C27">
+      <c r="C31">
         <v>0.23103448275862101</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>0.57933108066723704</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <v>9.6783910431561399E-2</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>98</v>
       </c>
-      <c r="B28">
+      <c r="B32">
         <v>-0.20793488539598501</v>
       </c>
-      <c r="C28">
+      <c r="C32">
         <v>2.06896551724138E-2</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <v>0.24931419574081201</v>
       </c>
-      <c r="E28">
+      <c r="E32">
         <v>0.42960915267838601</v>
       </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="B29">
+      <c r="B33">
         <v>-0.365973324237512</v>
       </c>
-      <c r="C29">
+      <c r="C33">
         <v>-0.14137931034482801</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>8.3214703547856497E-2</v>
       </c>
-      <c r="E29">
+      <c r="E33">
         <v>0.89135651907475999</v>
       </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B30">
+      <c r="B34">
         <v>-0.20853080920422101</v>
       </c>
-      <c r="C30">
+      <c r="C34">
         <v>9.6551724137931005E-2</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <v>0.40163425748008302</v>
       </c>
-      <c r="E30">
+      <c r="E34">
         <v>0.26753531868866698</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B31">
+      <c r="B35">
         <v>-0.17715208695798099</v>
       </c>
-      <c r="C31">
+      <c r="C35">
         <v>7.5862068965517296E-2</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>0.32887622488901502</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <v>0.27837943665339199</v>
       </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B32">
+      <c r="B36">
         <v>-0.242775823776922</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <v>4.82758620689656E-2</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>0.33932754791485398</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <v>0.37255523246975297</v>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B33">
+      <c r="B37">
         <v>-0.256244263197619</v>
       </c>
-      <c r="C33">
+      <c r="C37">
         <v>-2.75862068965518E-2</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <v>0.201071849404516</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <v>0.59346126001376098</v>
       </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B34">
+      <c r="B38">
         <v>-0.26939493262529501</v>
       </c>
-      <c r="C34">
+      <c r="C38">
         <v>-8.9655172413793102E-2</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <v>9.0084587797708393E-2</v>
       </c>
-      <c r="E34">
+      <c r="E38">
         <v>0.83587397535491104</v>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>85</v>
       </c>
-      <c r="B35">
+      <c r="B39">
         <v>-0.52436719474890403</v>
       </c>
-      <c r="C35">
+      <c r="C39">
         <v>-0.17586206896551701</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <v>0.17264305681787001</v>
       </c>
-      <c r="E35">
+      <c r="E39">
         <v>0.83867667832867498</v>
       </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>79</v>
       </c>
-      <c r="B36">
+      <c r="B40">
         <v>-0.486229235381957</v>
       </c>
-      <c r="C36">
+      <c r="C40">
         <v>-0.20344827586206901</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <v>7.9332683657818606E-2</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <v>0.92074589355760394</v>
       </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B41">
         <v>-0.40459182485008899</v>
       </c>
-      <c r="C37">
+      <c r="C41">
         <v>-0.11379310344827601</v>
       </c>
-      <c r="D37">
+      <c r="D41">
         <v>0.177005617953538</v>
       </c>
-      <c r="E37">
+      <c r="E41">
         <v>0.77844673450614099</v>
       </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>33</v>
       </c>
-      <c r="B38">
+      <c r="B42">
         <v>-0.36703958680585203</v>
       </c>
-      <c r="C38">
+      <c r="C42">
         <v>-0.10344827586206901</v>
       </c>
-      <c r="D38">
+      <c r="D42">
         <v>0.16014303508171401</v>
       </c>
-      <c r="E38">
+      <c r="E42">
         <v>0.77911322109129499</v>
       </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>91</v>
       </c>
-      <c r="B39">
+      <c r="B43">
         <v>-0.40461993245758499</v>
       </c>
-      <c r="C39">
+      <c r="C43">
         <v>-7.5862068965517199E-2</v>
       </c>
-      <c r="D39">
+      <c r="D43">
         <v>0.25289579452654998</v>
       </c>
-      <c r="E39">
+      <c r="E43">
         <v>0.67446232358611302</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B40">
+      <c r="B44">
         <v>-0.203124138853744</v>
       </c>
-      <c r="C40">
+      <c r="C44">
         <v>0.14137931034482701</v>
       </c>
-      <c r="D40">
+      <c r="D44">
         <v>0.48588275954339899</v>
       </c>
-      <c r="E40">
+      <c r="E44">
         <v>0.21059994240973401</v>
       </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>71</v>
       </c>
-      <c r="B41">
+      <c r="B45">
         <v>-0.341514259701728</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C45" s="1">
         <v>-5.5511151231257802E-17</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <v>0.341514259701727</v>
       </c>
-      <c r="E41">
+      <c r="E45">
         <v>0.5</v>
       </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>95</v>
       </c>
-      <c r="B42">
+      <c r="B46">
         <v>-0.342321441270524</v>
       </c>
-      <c r="C42">
+      <c r="C46">
         <v>-8.6206896551724102E-2</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>0.16990764816707599</v>
       </c>
-      <c r="E42">
+      <c r="E46">
         <v>0.74528138694088597</v>
       </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B47">
         <v>-0.310022259945747</v>
       </c>
-      <c r="C43">
+      <c r="C47">
         <v>-2.4137931034482699E-2</v>
       </c>
-      <c r="D43">
+      <c r="D47">
         <v>0.261746397876782</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <v>0.56571874476262196</v>
       </c>
-      <c r="F43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>64</v>
       </c>
-      <c r="B44">
+      <c r="B48">
         <v>-0.45298515423402103</v>
       </c>
-      <c r="C44">
+      <c r="C48">
         <v>-0.15862068965517201</v>
       </c>
-      <c r="D44">
+      <c r="D48">
         <v>0.13574377492367701</v>
       </c>
-      <c r="E44">
+      <c r="E48">
         <v>0.85454845550803904</v>
       </c>
-      <c r="F44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>27</v>
       </c>
-      <c r="B45">
+      <c r="B49">
         <v>-0.185901774479038</v>
       </c>
-      <c r="C45">
+      <c r="C49">
         <v>4.1379310344827502E-2</v>
       </c>
-      <c r="D45">
+      <c r="D49">
         <v>0.268660395168694</v>
       </c>
-      <c r="E45">
+      <c r="E49">
         <v>0.36060748173138502</v>
       </c>
-      <c r="F45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>94</v>
       </c>
-      <c r="B46">
+      <c r="B50">
         <v>-0.26999141998860299</v>
       </c>
-      <c r="C46">
+      <c r="C50">
         <v>1.03448275862069E-2</v>
       </c>
-      <c r="D46">
+      <c r="D50">
         <v>0.29068107516101699</v>
       </c>
-      <c r="E46">
+      <c r="E50">
         <v>0.471171392989156</v>
       </c>
-      <c r="F46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>82</v>
       </c>
-      <c r="B47">
+      <c r="B51">
         <v>-0.371211638227258</v>
       </c>
-      <c r="C47">
+      <c r="C51">
         <v>-9.3103448275862102E-2</v>
       </c>
-      <c r="D47">
+      <c r="D51">
         <v>0.18500474167553399</v>
       </c>
-      <c r="E47">
+      <c r="E51">
         <v>0.74413470748908395</v>
       </c>
-      <c r="F47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B48">
+      <c r="B52">
         <v>-0.37664002622262199</v>
       </c>
-      <c r="C48">
+      <c r="C52">
         <v>-8.2758620689655296E-2</v>
       </c>
-      <c r="D48">
+      <c r="D52">
         <v>0.21112278484331101</v>
       </c>
-      <c r="E48">
+      <c r="E52">
         <v>0.70950411850017003</v>
       </c>
-      <c r="F48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B49">
+      <c r="B53">
         <v>-0.37146568302954602</v>
       </c>
-      <c r="C49">
+      <c r="C53">
         <v>-0.14137931034482701</v>
       </c>
-      <c r="D49">
+      <c r="D53">
         <v>8.8707062339890605E-2</v>
       </c>
-      <c r="E49">
+      <c r="E53">
         <v>0.88576765831579196</v>
       </c>
-      <c r="F49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>73</v>
       </c>
-      <c r="B50">
+      <c r="B54">
         <v>-0.27203716730611399</v>
       </c>
-      <c r="C50">
+      <c r="C54">
         <v>-5.8620689655172399E-2</v>
       </c>
-      <c r="D50">
+      <c r="D54">
         <v>0.15479578799576901</v>
       </c>
-      <c r="E50">
+      <c r="E54">
         <v>0.70483499715468301</v>
       </c>
-      <c r="F50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>29</v>
       </c>
-      <c r="B51">
+      <c r="B55">
         <v>-0.16710047325694</v>
       </c>
-      <c r="C51">
+      <c r="C55">
         <v>0.11034482758620701</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <v>0.38779012842935301</v>
       </c>
-      <c r="E51">
+      <c r="E55">
         <v>0.21783914244021199</v>
       </c>
-      <c r="F51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>12</v>
       </c>
-      <c r="B52">
+      <c r="B56">
         <v>-0.25046848346369699</v>
       </c>
-      <c r="C52">
+      <c r="C56">
         <v>-2.4137931034482699E-2</v>
       </c>
-      <c r="D52">
+      <c r="D56">
         <v>0.20219262139473199</v>
       </c>
-      <c r="E52">
+      <c r="E56">
         <v>0.58278690073672101</v>
       </c>
-      <c r="F52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>15</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <v>-0.28454776963898898</v>
       </c>
-      <c r="C53">
+      <c r="C57">
         <v>6.8965517241380099E-3</v>
       </c>
-      <c r="D53">
+      <c r="D57">
         <v>0.29834087308726498</v>
       </c>
-      <c r="E53">
+      <c r="E57">
         <v>0.48150395465137902</v>
       </c>
-      <c r="F53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>80</v>
       </c>
-      <c r="B54">
+      <c r="B58">
         <v>-0.21175154489041301</v>
       </c>
-      <c r="C54">
+      <c r="C58">
         <v>4.48275862068966E-2</v>
       </c>
-      <c r="D54">
+      <c r="D58">
         <v>0.30140671730420598</v>
       </c>
-      <c r="E54">
+      <c r="E58">
         <v>0.36601356561986398</v>
       </c>
-      <c r="F54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>97</v>
       </c>
-      <c r="B55">
+      <c r="B59">
         <v>-0.196457962513506</v>
       </c>
-      <c r="C55">
+      <c r="C59">
         <v>4.1379310344827697E-2</v>
       </c>
-      <c r="D55">
+      <c r="D59">
         <v>0.27921658320316101</v>
       </c>
-      <c r="E55">
+      <c r="E59">
         <v>0.366552664583221</v>
       </c>
-      <c r="F55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>88</v>
       </c>
-      <c r="B56">
+      <c r="B60">
         <v>-0.20858131246558301</v>
       </c>
-      <c r="C56">
+      <c r="C60">
         <v>2.41379310344828E-2</v>
       </c>
-      <c r="D56">
+      <c r="D60">
         <v>0.25685717453454898</v>
       </c>
-      <c r="E56">
+      <c r="E60">
         <v>0.419454218375023</v>
       </c>
-      <c r="F56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>87</v>
       </c>
-      <c r="B57">
+      <c r="B61">
         <v>-0.33283974637052</v>
       </c>
-      <c r="C57">
+      <c r="C61">
         <v>-0.10344827586206901</v>
       </c>
-      <c r="D57">
+      <c r="D61">
         <v>0.12594319464638201</v>
       </c>
-      <c r="E57">
+      <c r="E61">
         <v>0.81161992864445698</v>
       </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>111</v>
       </c>
-      <c r="B58">
+      <c r="B62">
         <v>-0.35670251762545502</v>
       </c>
-      <c r="C58">
+      <c r="C62">
         <v>-5.1724137931034503E-2</v>
       </c>
-      <c r="D58">
+      <c r="D62">
         <v>0.25325424176338701</v>
       </c>
-      <c r="E58">
+      <c r="E62">
         <v>0.63020964115424705</v>
       </c>
-      <c r="F58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>51</v>
       </c>
-      <c r="B59">
+      <c r="B63">
         <v>-0.53122417171224301</v>
       </c>
-      <c r="C59">
+      <c r="C63">
         <v>-0.12413793103448301</v>
       </c>
-      <c r="D59">
+      <c r="D63">
         <v>0.282948309643278</v>
       </c>
-      <c r="E59">
+      <c r="E63">
         <v>0.72497209106565197</v>
       </c>
-      <c r="F59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>68</v>
       </c>
-      <c r="B60">
+      <c r="B64">
         <v>-0.41492062456529299</v>
       </c>
-      <c r="C60">
+      <c r="C64">
         <v>-6.5517241379310406E-2</v>
       </c>
-      <c r="D60">
+      <c r="D64">
         <v>0.28388614180667299</v>
       </c>
-      <c r="E60">
+      <c r="E64">
         <v>0.643383026730588</v>
       </c>
-      <c r="F60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>54</v>
       </c>
-      <c r="B61">
+      <c r="B65">
         <v>-0.29239374139990798</v>
-      </c>
-      <c r="C61">
-        <v>2.41379310344828E-2</v>
-      </c>
-      <c r="D61">
-        <v>0.34066960346887298</v>
-      </c>
-      <c r="E61">
-        <v>0.440594522801879</v>
-      </c>
-      <c r="F61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62">
-        <v>-0.297379565615984</v>
-      </c>
-      <c r="C62">
-        <v>-1.3793103448275799E-2</v>
-      </c>
-      <c r="D62">
-        <v>0.269793358719432</v>
-      </c>
-      <c r="E62">
-        <v>0.53797320655206704</v>
-      </c>
-      <c r="F62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63">
-        <v>-0.123918633187601</v>
-      </c>
-      <c r="C63">
-        <v>0.24137931034482701</v>
-      </c>
-      <c r="D63">
-        <v>0.60667725387725602</v>
-      </c>
-      <c r="E63">
-        <v>9.7644100521009997E-2</v>
-      </c>
-      <c r="F63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64">
-        <v>-0.206298428243886</v>
-      </c>
-      <c r="C64">
-        <v>7.5862068965517296E-2</v>
-      </c>
-      <c r="D64">
-        <v>0.35802256617492101</v>
-      </c>
-      <c r="E64">
-        <v>0.29911114167046698</v>
-      </c>
-      <c r="F64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65">
-        <v>-0.246932693107351</v>
       </c>
       <c r="C65">
         <v>2.41379310344828E-2</v>
       </c>
       <c r="D65">
+        <v>0.34066960346887298</v>
+      </c>
+      <c r="E65">
+        <v>0.440594522801879</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66">
+        <v>-0.297379565615984</v>
+      </c>
+      <c r="C66">
+        <v>-1.3793103448275799E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.269793358719432</v>
+      </c>
+      <c r="E66">
+        <v>0.53797320655206704</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>-0.123918633187601</v>
+      </c>
+      <c r="C67">
+        <v>0.24137931034482701</v>
+      </c>
+      <c r="D67">
+        <v>0.60667725387725602</v>
+      </c>
+      <c r="E67">
+        <v>9.7644100521009997E-2</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68">
+        <v>-0.206298428243886</v>
+      </c>
+      <c r="C68">
+        <v>7.5862068965517296E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.35802256617492101</v>
+      </c>
+      <c r="E68">
+        <v>0.29911114167046698</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>-0.246932693107351</v>
+      </c>
+      <c r="C69">
+        <v>2.41379310344828E-2</v>
+      </c>
+      <c r="D69">
         <v>0.295208555176316</v>
       </c>
-      <c r="E65">
+      <c r="E69">
         <v>0.43072517452249398</v>
       </c>
-      <c r="F65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>26</v>
       </c>
-      <c r="B66">
+      <c r="B70">
         <v>-0.22688569496076499</v>
       </c>
-      <c r="C66">
+      <c r="C70">
         <v>4.48275862068966E-2</v>
       </c>
-      <c r="D66">
+      <c r="D70">
         <v>0.316540867374558</v>
       </c>
-      <c r="E66">
+      <c r="E70">
         <v>0.37321235756111598</v>
       </c>
-      <c r="F66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>25</v>
       </c>
-      <c r="B67">
+      <c r="B71">
         <v>-0.30585430050668</v>
       </c>
-      <c r="C67">
+      <c r="C71">
         <v>6.8965517241379604E-3</v>
       </c>
-      <c r="D67">
+      <c r="D71">
         <v>0.319647403954956</v>
       </c>
-      <c r="E67">
+      <c r="E71">
         <v>0.48276320710206</v>
       </c>
-      <c r="F67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>43</v>
       </c>
-      <c r="B68">
+      <c r="B72">
         <v>-0.27456868650421801</v>
       </c>
-      <c r="C68">
+      <c r="C72">
         <v>4.8275862068965503E-2</v>
       </c>
-      <c r="D68">
+      <c r="D72">
         <v>0.37112041064214901</v>
       </c>
-      <c r="E68">
+      <c r="E72">
         <v>0.38473089162221302</v>
       </c>
-      <c r="F68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="B69">
+      <c r="B73">
         <v>-0.37905595250042901</v>
       </c>
-      <c r="C69">
+      <c r="C73">
         <v>-3.7931034482758703E-2</v>
       </c>
-      <c r="D69">
+      <c r="D73">
         <v>0.303193883534912</v>
       </c>
-      <c r="E69">
+      <c r="E73">
         <v>0.58626058141829795</v>
       </c>
-      <c r="F69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>28</v>
       </c>
-      <c r="B70">
+      <c r="B74">
         <v>-0.29746378414139601</v>
       </c>
-      <c r="C70">
+      <c r="C74">
         <v>-5.8620689655172399E-2</v>
       </c>
-      <c r="D70">
+      <c r="D74">
         <v>0.18022240483105101</v>
       </c>
-      <c r="E70">
+      <c r="E74">
         <v>0.68475798587319003</v>
       </c>
-      <c r="F70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>112</v>
       </c>
-      <c r="B71">
+      <c r="B75">
         <v>-0.15430203030956299</v>
       </c>
-      <c r="C71">
+      <c r="C75">
         <v>0.13448275862069001</v>
       </c>
-      <c r="D71">
+      <c r="D75">
         <v>0.42326754755094298</v>
       </c>
-      <c r="E71">
+      <c r="E75">
         <v>0.180693352883953</v>
       </c>
-      <c r="F71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>113</v>
       </c>
-      <c r="B72">
+      <c r="B76">
         <v>-0.27990922143610403</v>
       </c>
-      <c r="C72">
+      <c r="C76">
         <v>-1.0344827586207E-2</v>
       </c>
-      <c r="D72">
+      <c r="D76">
         <v>0.25921956626369003</v>
       </c>
-      <c r="E72">
+      <c r="E76">
         <v>0.52997847554091904</v>
       </c>
-      <c r="F72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>16</v>
       </c>
-      <c r="B73">
+      <c r="B77">
         <v>-0.21912752030211499</v>
       </c>
-      <c r="C73">
+      <c r="C77">
         <v>7.5862068965517296E-2</v>
       </c>
-      <c r="D73">
+      <c r="D77">
         <v>0.37085165823314897</v>
       </c>
-      <c r="E73">
+      <c r="E77">
         <v>0.30711619311021698</v>
       </c>
-      <c r="F73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>72</v>
       </c>
-      <c r="B74">
+      <c r="B78">
         <v>-0.29049177459346898</v>
       </c>
-      <c r="C74">
+      <c r="C78">
         <v>8.2758620689655005E-2</v>
       </c>
-      <c r="D74">
+      <c r="D78">
         <v>0.45600901597277899</v>
       </c>
-      <c r="E74">
+      <c r="E78">
         <v>0.33193680914076201</v>
       </c>
-      <c r="F74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>115</v>
       </c>
-      <c r="B75">
+      <c r="B79">
         <v>-0.19955286624395099</v>
       </c>
-      <c r="C75">
+      <c r="C79">
         <v>0.16551724137931001</v>
       </c>
-      <c r="D75">
+      <c r="D79">
         <v>0.53058734900257198</v>
       </c>
-      <c r="E75">
+      <c r="E79">
         <v>0.18710423418831801</v>
       </c>
-      <c r="F75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>86</v>
       </c>
-      <c r="B76">
+      <c r="B80">
         <v>-0.35547518328433297</v>
       </c>
-      <c r="C76">
+      <c r="C80">
         <v>-5.5172413793103399E-2</v>
       </c>
-      <c r="D76">
+      <c r="D80">
         <v>0.24513035569812699</v>
       </c>
-      <c r="E76">
+      <c r="E80">
         <v>0.64060998465862495</v>
       </c>
-      <c r="F76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>63</v>
       </c>
-      <c r="B77">
+      <c r="B81">
         <v>-4.5673960023227801E-2</v>
       </c>
-      <c r="C77">
+      <c r="C81">
         <v>0.30689655172413799</v>
       </c>
-      <c r="D77">
+      <c r="D81">
         <v>0.65946706347150297</v>
       </c>
-      <c r="E77">
+      <c r="E81">
         <v>4.3998522859872997E-2</v>
       </c>
-      <c r="F77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>110</v>
       </c>
-      <c r="B78">
+      <c r="B82">
         <v>-0.28013368706047498</v>
       </c>
-      <c r="C78">
+      <c r="C82">
         <v>3.10344827586207E-2</v>
       </c>
-      <c r="D78">
+      <c r="D82">
         <v>0.34220265257771598</v>
       </c>
-      <c r="E78">
+      <c r="E82">
         <v>0.42250945871690898</v>
       </c>
-      <c r="F78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>93</v>
       </c>
-      <c r="B79">
+      <c r="B83">
         <v>-0.53869806267458198</v>
       </c>
-      <c r="C79">
+      <c r="C83">
         <v>-0.17931034482758601</v>
       </c>
-      <c r="D79">
+      <c r="D83">
         <v>0.18007737301940999</v>
       </c>
-      <c r="E79">
+      <c r="E83">
         <v>0.83593574607679499</v>
       </c>
-      <c r="F79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>119</v>
       </c>
-      <c r="B80">
+      <c r="B84">
         <v>-0.42275580356238102</v>
       </c>
-      <c r="C80">
+      <c r="C84">
         <v>-0.13448275862069001</v>
       </c>
-      <c r="D80">
+      <c r="D84">
         <v>0.153790286321001</v>
       </c>
-      <c r="E80">
+      <c r="E84">
         <v>0.81973251935682301</v>
       </c>
-      <c r="F80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>47</v>
       </c>
-      <c r="B81">
+      <c r="B85">
         <v>-0.233201319101626</v>
       </c>
-      <c r="C81">
+      <c r="C85">
         <v>6.5517241379310295E-2</v>
       </c>
-      <c r="D81">
+      <c r="D85">
         <v>0.36423580186024701</v>
       </c>
-      <c r="E81">
+      <c r="E85">
         <v>0.33364353894270299</v>
       </c>
-      <c r="F81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>108</v>
       </c>
-      <c r="B82">
+      <c r="B86">
         <v>-0.30600818550575398</v>
       </c>
-      <c r="C82">
+      <c r="C86">
         <v>-4.8275862068965503E-2</v>
       </c>
-      <c r="D82">
+      <c r="D86">
         <v>0.209456461367823</v>
       </c>
-      <c r="E82">
+      <c r="E86">
         <v>0.64323562206087703</v>
       </c>
-      <c r="F82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>76</v>
       </c>
-      <c r="B83">
+      <c r="B87">
         <v>-0.178562664879305</v>
       </c>
-      <c r="C83">
+      <c r="C87">
         <v>0.16206896551724101</v>
       </c>
-      <c r="D83">
+      <c r="D87">
         <v>0.50270059591378802</v>
       </c>
-      <c r="E83">
+      <c r="E87">
         <v>0.175531253248739</v>
       </c>
-      <c r="F83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>35</v>
       </c>
-      <c r="B84">
+      <c r="B88">
         <v>-0.26763125369426299</v>
       </c>
-      <c r="C84">
+      <c r="C88">
         <v>6.8965517241380099E-3</v>
       </c>
-      <c r="D84">
+      <c r="D88">
         <v>0.28142435714253899</v>
       </c>
-      <c r="E84">
+      <c r="E88">
         <v>0.48036511475089599</v>
       </c>
-      <c r="F84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>70</v>
       </c>
-      <c r="B85">
+      <c r="B89">
         <v>-0.22155390772015399</v>
       </c>
-      <c r="C85">
+      <c r="C89">
         <v>3.7931034482758703E-2</v>
       </c>
-      <c r="D85">
+      <c r="D89">
         <v>0.29741597668567099</v>
       </c>
-      <c r="E85">
+      <c r="E89">
         <v>0.38724608342780897</v>
       </c>
-      <c r="F85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>48</v>
       </c>
-      <c r="B86">
+      <c r="B90">
         <v>-0.33823797049298898</v>
       </c>
-      <c r="C86">
+      <c r="C90">
         <v>-1.3793103448276001E-2</v>
       </c>
-      <c r="D86">
+      <c r="D90">
         <v>0.31065176359643698</v>
       </c>
-      <c r="E86">
+      <c r="E90">
         <v>0.53320297009332496</v>
       </c>
-      <c r="F86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>40</v>
       </c>
-      <c r="B87">
+      <c r="B91">
         <v>-0.38541217908949299</v>
       </c>
-      <c r="C87">
+      <c r="C91">
         <v>-3.4482758620689703E-2</v>
       </c>
-      <c r="D87">
+      <c r="D91">
         <v>0.31644666184811399</v>
       </c>
-      <c r="E87">
+      <c r="E91">
         <v>0.57635936763132001</v>
       </c>
-      <c r="F87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>53</v>
       </c>
-      <c r="B88">
+      <c r="B92">
         <v>-0.53065609933819502</v>
       </c>
-      <c r="C88">
+      <c r="C92">
         <v>-7.2413793103448199E-2</v>
       </c>
-      <c r="D88">
+      <c r="D92">
         <v>0.38582851313129801</v>
       </c>
-      <c r="E88">
+      <c r="E92">
         <v>0.62161439761886095</v>
       </c>
-      <c r="F88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>84</v>
       </c>
-      <c r="B89">
+      <c r="B93">
         <v>-0.22991202348318901</v>
       </c>
-      <c r="C89">
+      <c r="C93">
         <v>2.06896551724138E-2</v>
       </c>
-      <c r="D89">
+      <c r="D93">
         <v>0.27129133382801701</v>
       </c>
-      <c r="E89">
+      <c r="E93">
         <v>0.43572597705277599</v>
       </c>
-      <c r="F89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="B90">
+      <c r="B94">
         <v>-0.39600601974051403</v>
       </c>
-      <c r="C90">
+      <c r="C94">
         <v>-0.14482758620689701</v>
       </c>
-      <c r="D90">
+      <c r="D94">
         <v>0.106350847326721</v>
       </c>
-      <c r="E90">
+      <c r="E94">
         <v>0.87078304335286005</v>
       </c>
-      <c r="F90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>56</v>
       </c>
-      <c r="B91">
+      <c r="B95">
         <v>-0.21579425646514</v>
       </c>
-      <c r="C91">
+      <c r="C95">
         <v>3.4482758620689703E-2</v>
       </c>
-      <c r="D91">
+      <c r="D95">
         <v>0.284759773706519</v>
       </c>
-      <c r="E91">
+      <c r="E95">
         <v>0.39356449473038002</v>
       </c>
-      <c r="F91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>55</v>
       </c>
-      <c r="B92">
+      <c r="B96">
         <v>-5.3727792168923601E-2</v>
       </c>
-      <c r="C92">
+      <c r="C96">
         <v>0.37241379310344802</v>
       </c>
-      <c r="D92">
+      <c r="D96">
         <v>0.79855537837582002</v>
       </c>
-      <c r="E92">
+      <c r="E96">
         <v>4.3369851881639901E-2</v>
       </c>
-      <c r="F92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>45</v>
       </c>
-      <c r="B93">
+      <c r="B97">
         <v>-0.36650613918341501</v>
       </c>
-      <c r="C93">
+      <c r="C97">
         <v>-0.11034482758620701</v>
       </c>
-      <c r="D93">
+      <c r="D97">
         <v>0.145816484011001</v>
       </c>
-      <c r="E93">
+      <c r="E97">
         <v>0.80074353751276695</v>
       </c>
-      <c r="F93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>67</v>
       </c>
-      <c r="B94">
+      <c r="B98">
         <v>-0.40112687725985002</v>
       </c>
-      <c r="C94">
+      <c r="C98">
         <v>-3.4482758620689703E-2</v>
       </c>
-      <c r="D94">
+      <c r="D98">
         <v>0.33216136001847002</v>
       </c>
-      <c r="E94">
+      <c r="E98">
         <v>0.57312426579928999</v>
       </c>
-      <c r="F94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>66</v>
       </c>
-      <c r="B95">
+      <c r="B99">
         <v>-0.19538481686744799</v>
       </c>
-      <c r="C95">
+      <c r="C99">
         <v>0.13103448275862101</v>
       </c>
-      <c r="D95">
+      <c r="D99">
         <v>0.45745378238468898</v>
       </c>
-      <c r="E95">
+      <c r="E99">
         <v>0.21570291879371001</v>
       </c>
-      <c r="F95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>90</v>
       </c>
-      <c r="B96">
+      <c r="B100">
         <v>-0.29272923995475297</v>
       </c>
-      <c r="C96">
+      <c r="C100">
         <v>-4.13793103448276E-2</v>
       </c>
-      <c r="D96">
+      <c r="D100">
         <v>0.209970619265097</v>
       </c>
-      <c r="E96">
+      <c r="E100">
         <v>0.62652571959366699</v>
       </c>
-      <c r="F96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>60</v>
       </c>
-      <c r="B97">
+      <c r="B101">
         <v>-0.196683481575261</v>
       </c>
-      <c r="C97">
+      <c r="C101">
         <v>0.12413793103448301</v>
       </c>
-      <c r="D97">
+      <c r="D101">
         <v>0.44495934364422701</v>
       </c>
-      <c r="E97">
+      <c r="E101">
         <v>0.224110522194158</v>
       </c>
-      <c r="F97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>38</v>
       </c>
-      <c r="B98">
+      <c r="B102">
         <v>-0.19300440161370599</v>
       </c>
-      <c r="C98">
+      <c r="C102">
         <v>7.2413793103448296E-2</v>
       </c>
-      <c r="D98">
+      <c r="D102">
         <v>0.33783198782060297</v>
       </c>
-      <c r="E98">
+      <c r="E102">
         <v>0.29641652118363898</v>
       </c>
-      <c r="F98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>17</v>
       </c>
-      <c r="B99">
+      <c r="B103">
         <v>-0.23399135029523599</v>
       </c>
-      <c r="C99">
+      <c r="C103">
         <v>1.03448275862069E-2</v>
       </c>
-      <c r="D99">
+      <c r="D103">
         <v>0.25468100546764999</v>
       </c>
-      <c r="E99">
+      <c r="E103">
         <v>0.46693295084317599</v>
       </c>
-      <c r="F99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>78</v>
       </c>
-      <c r="B100">
+      <c r="B104">
         <v>-0.364840799602903</v>
       </c>
-      <c r="C100">
+      <c r="C104">
         <v>-0.16551724137931001</v>
       </c>
-      <c r="D100">
+      <c r="D104">
         <v>3.3806316844282598E-2</v>
       </c>
-      <c r="E100">
+      <c r="E104">
         <v>0.94818917858505003</v>
       </c>
-      <c r="F100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>34</v>
       </c>
-      <c r="B101">
+      <c r="B105">
         <v>-0.371351965359348</v>
       </c>
-      <c r="C101">
+      <c r="C105">
         <v>-6.5517241379310406E-2</v>
       </c>
-      <c r="D101">
+      <c r="D105">
         <v>0.24031748260072799</v>
       </c>
-      <c r="E101">
+      <c r="E105">
         <v>0.66271051378564705</v>
       </c>
-      <c r="F101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>69</v>
       </c>
-      <c r="B102">
+      <c r="B106">
         <v>-0.31442335842701102</v>
       </c>
-      <c r="C102">
+      <c r="C106">
         <v>-4.48275862068966E-2</v>
       </c>
-      <c r="D102">
+      <c r="D106">
         <v>0.22476818601321699</v>
       </c>
-      <c r="E102">
+      <c r="E106">
         <v>0.62774885876762698</v>
       </c>
-      <c r="F102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>9</v>
       </c>
-      <c r="B103">
+      <c r="B107">
         <v>-0.19590577663917899</v>
       </c>
-      <c r="C103">
+      <c r="C107">
         <v>0.15172413793103401</v>
       </c>
-      <c r="D103">
+      <c r="D107">
         <v>0.49935405250124798</v>
       </c>
-      <c r="E103">
+      <c r="E107">
         <v>0.19615594337574799</v>
       </c>
-      <c r="F103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>24</v>
       </c>
-      <c r="B104">
+      <c r="B108">
         <v>-0.40720461847122202</v>
       </c>
-      <c r="C104">
+      <c r="C108">
         <v>-0.15517241379310301</v>
       </c>
-      <c r="D104">
+      <c r="D108">
         <v>9.6859790885014702E-2</v>
       </c>
-      <c r="E104">
+      <c r="E108">
         <v>0.88623003381740295</v>
       </c>
-      <c r="F104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>96</v>
       </c>
-      <c r="B105">
+      <c r="B109">
         <v>-0.14833880145060699</v>
       </c>
-      <c r="C105">
+      <c r="C109">
         <v>0.24137931034482701</v>
       </c>
-      <c r="D105">
+      <c r="D109">
         <v>0.63109742214026099</v>
       </c>
-      <c r="E105">
+      <c r="E109">
         <v>0.112385146819878</v>
       </c>
-      <c r="F105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>103</v>
       </c>
-      <c r="B106">
+      <c r="B110">
         <v>-0.479343107893624</v>
       </c>
-      <c r="C106">
+      <c r="C110">
         <v>-0.12413793103448301</v>
       </c>
-      <c r="D106">
+      <c r="D110">
         <v>0.23106724582465801</v>
       </c>
-      <c r="E106">
+      <c r="E110">
         <v>0.753319448004936</v>
       </c>
-      <c r="F106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>118</v>
       </c>
-      <c r="B107">
+      <c r="B111">
         <v>-0.48888335788107101</v>
       </c>
-      <c r="C107">
+      <c r="C111">
         <v>-0.12068965517241401</v>
       </c>
-      <c r="D107">
+      <c r="D111">
         <v>0.247504047536244</v>
       </c>
-      <c r="E107">
+      <c r="E111">
         <v>0.73971065312695305</v>
       </c>
-      <c r="F107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>44</v>
       </c>
-      <c r="B108">
+      <c r="B112">
         <v>-0.15959431539653801</v>
       </c>
-      <c r="C108">
+      <c r="C112">
         <v>0.17586206896551701</v>
       </c>
-      <c r="D108">
+      <c r="D112">
         <v>0.51131845332757297</v>
       </c>
-      <c r="E108">
+      <c r="E112">
         <v>0.15209121937766901</v>
       </c>
-      <c r="F108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>120</v>
       </c>
-      <c r="B109">
+      <c r="B113">
         <v>-0.23419052194523099</v>
       </c>
-      <c r="C109">
+      <c r="C113">
         <v>5.1724137931034503E-2</v>
       </c>
-      <c r="D109">
+      <c r="D113">
         <v>0.3376387978073</v>
       </c>
-      <c r="E109">
+      <c r="E113">
         <v>0.36145497756151002</v>
       </c>
-      <c r="F109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>77</v>
       </c>
-      <c r="B110">
+      <c r="B114">
         <v>-0.332319294266197</v>
       </c>
-      <c r="C110">
+      <c r="C114">
         <v>-0.11724137931034501</v>
       </c>
-      <c r="D110">
+      <c r="D114">
         <v>9.7836535645507094E-2</v>
       </c>
-      <c r="E110">
+      <c r="E114">
         <v>0.85732956057371601</v>
       </c>
-      <c r="F110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>36</v>
       </c>
-      <c r="B111">
+      <c r="B115">
         <v>-0.28472503762866702</v>
       </c>
-      <c r="C111">
+      <c r="C115">
         <v>-4.4827586206896503E-2</v>
       </c>
-      <c r="D111">
+      <c r="D115">
         <v>0.19506986521487399</v>
       </c>
-      <c r="E111">
+      <c r="E115">
         <v>0.64290764208765105</v>
       </c>
-      <c r="F111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>36</v>
       </c>
-      <c r="B112">
+      <c r="B116">
         <v>-0.47369205603007403</v>
       </c>
-      <c r="C112">
+      <c r="C116">
         <v>-0.23448275862069001</v>
       </c>
-      <c r="D112">
+      <c r="D116">
         <v>4.7265387886943899E-3</v>
       </c>
-      <c r="E112">
+      <c r="E116">
         <v>0.97264908460297494</v>
       </c>
-      <c r="F112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>10</v>
       </c>
-      <c r="B113">
+      <c r="B117">
         <v>-0.43415348257483899</v>
       </c>
-      <c r="C113">
+      <c r="C117">
         <v>-0.17241379310344801</v>
       </c>
-      <c r="D113">
+      <c r="D117">
         <v>8.9325896367942206E-2</v>
       </c>
-      <c r="E113">
+      <c r="E117">
         <v>0.90166067076640999</v>
       </c>
-      <c r="F113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>101</v>
       </c>
-      <c r="B114">
+      <c r="B118">
         <v>-0.31148832913985403</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C118" s="1">
         <v>4.4408920985006301E-17</v>
       </c>
-      <c r="D114">
+      <c r="D118">
         <v>0.31148832913985403</v>
       </c>
-      <c r="E114">
+      <c r="E118">
         <v>0.5</v>
       </c>
-      <c r="F114" t="b">
+      <c r="F118" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F115">
-    <sortCondition descending="1" ref="F1:F115"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F119">
+    <sortCondition descending="1" ref="F5:F119"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
